--- a/InputFiles/TC55_Canine_StudyNCATSCOP01-Sex_FileAsso_FileType_FileFormat.xlsx
+++ b/InputFiles/TC55_Canine_StudyNCATSCOP01-Sex_FileAsso_FileType_FileFormat.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\davids3\newclone\sofia0324\Commons_Automation\InputFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\davids3\newclone\sofia0403\Commons_Automation\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D7A5468-89D1-4E2B-B08C-92D6569CFD56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{426ECE75-4199-434C-9BD5-D11BD75FA120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
@@ -165,7 +165,7 @@
 MATCH (s:study)&lt;-[*]-(c)&lt;--(diag:diagnosis)
 OPTIONAL MATCH (f)--&gt;(samp:sample)
 MATCH (f)--&gt;(diag:diagnosis)
-WHERE s.clinical_study_designation IN ['NCATS-COP01'] and demo.sex in ['Female'] and labels(parent)[0] IN ['diagnosis'] and f.file_type in ['Pathology Report'] and f.file_format IN ['tif']
+WHERE s.clinical_study_designation IN ['NCATS-COP01'] and diag.stage_of_disease in ['III'] and labels(parent)[0] IN ['diagnosis'] and f.file_format IN ['rtf']
 WITH
         DISTINCT f, parent, c, demo, diag, s, samp,
         ['Bytes', 'KB', 'MB', 'GB', 'TB'] AS units,
@@ -572,7 +572,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.5" x14ac:dyDescent="0.35"/>

--- a/InputFiles/TC55_Canine_StudyNCATSCOP01-Sex_FileAsso_FileType_FileFormat.xlsx
+++ b/InputFiles/TC55_Canine_StudyNCATSCOP01-Sex_FileAsso_FileType_FileFormat.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\davids3\newclone\sofia0403\Commons_Automation\InputFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\davids3\newclone\sofia0502\Commons_Automation\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{426ECE75-4199-434C-9BD5-D11BD75FA120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8855D03-D216-4C5C-AE63-58F4EDC1B053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
@@ -165,7 +165,7 @@
 MATCH (s:study)&lt;-[*]-(c)&lt;--(diag:diagnosis)
 OPTIONAL MATCH (f)--&gt;(samp:sample)
 MATCH (f)--&gt;(diag:diagnosis)
-WHERE s.clinical_study_designation IN ['NCATS-COP01'] and diag.stage_of_disease in ['III'] and labels(parent)[0] IN ['diagnosis'] and f.file_format IN ['rtf']
+WHERE s.clinical_study_designation IN ['NCATS-COP01'] and demo.sex in ['Female'] and labels(parent)[0] IN ['diagnosis'] and f.file_type in ['Pathology Report'] and f.file_format IN ['tif']
 WITH
         DISTINCT f, parent, c, demo, diag, s, samp,
         ['Bytes', 'KB', 'MB', 'GB', 'TB'] AS units,
@@ -572,7 +572,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.5" x14ac:dyDescent="0.35"/>
